--- a/Code/Results/Cases/Case_2_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020890785517447</v>
+        <v>1.044152094170697</v>
       </c>
       <c r="D2">
-        <v>1.037290171765673</v>
+        <v>1.049924100118101</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.042074900226751</v>
+        <v>1.059091091077023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052475686894112</v>
+        <v>1.043846791376833</v>
       </c>
       <c r="J2">
-        <v>1.042464118553625</v>
+        <v>1.049218712252233</v>
       </c>
       <c r="K2">
-        <v>1.048253335941624</v>
+        <v>1.052679806216123</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.05297760786631</v>
+        <v>1.061821541926077</v>
       </c>
       <c r="N2">
-        <v>1.017812470926224</v>
+        <v>1.020271793948582</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025189593249691</v>
+        <v>1.045056499513778</v>
       </c>
       <c r="D3">
-        <v>1.040489403616302</v>
+        <v>1.050620725571588</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.045807798944335</v>
+        <v>1.059925727354995</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053778657856871</v>
+        <v>1.044072927145614</v>
       </c>
       <c r="J3">
-        <v>1.045016349257158</v>
+        <v>1.049770479454477</v>
       </c>
       <c r="K3">
-        <v>1.050629156118785</v>
+        <v>1.053189073776213</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.055886281519208</v>
+        <v>1.06247028769972</v>
       </c>
       <c r="N3">
-        <v>1.018674693714206</v>
+        <v>1.020456931824559</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02791620024667</v>
+        <v>1.045642115502671</v>
       </c>
       <c r="D4">
-        <v>1.042521796903779</v>
+        <v>1.051071872512366</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.048180860220373</v>
+        <v>1.060466513178598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054596922228372</v>
+        <v>1.044218321331843</v>
       </c>
       <c r="J4">
-        <v>1.046631794919917</v>
+        <v>1.050127264457776</v>
       </c>
       <c r="K4">
-        <v>1.052132741199067</v>
+        <v>1.053518310150175</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.05773058489304</v>
+        <v>1.06289013947644</v>
       </c>
       <c r="N4">
-        <v>1.01922028692606</v>
+        <v>1.020576595665698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029049733519325</v>
+        <v>1.045888404255405</v>
       </c>
       <c r="D5">
-        <v>1.04336745138505</v>
+        <v>1.051261625040017</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.049168667350681</v>
+        <v>1.06069403037028</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054935106222965</v>
+        <v>1.044279221608695</v>
       </c>
       <c r="J5">
-        <v>1.047302548599401</v>
+        <v>1.050277197079108</v>
       </c>
       <c r="K5">
-        <v>1.052756993052296</v>
+        <v>1.053656649693768</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.058497139195331</v>
+        <v>1.063066660567513</v>
       </c>
       <c r="N5">
-        <v>1.01944678403933</v>
+        <v>1.020626870150089</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029239324437585</v>
+        <v>1.045929762802323</v>
       </c>
       <c r="D6">
-        <v>1.043508934141062</v>
+        <v>1.051293490579048</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.049333957146309</v>
+        <v>1.060732241478439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054991551613444</v>
+        <v>1.044289433912913</v>
       </c>
       <c r="J6">
-        <v>1.047414686564291</v>
+        <v>1.050302367888373</v>
       </c>
       <c r="K6">
-        <v>1.052861353240787</v>
+        <v>1.053679873291501</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.058625338855069</v>
+        <v>1.063096300100218</v>
       </c>
       <c r="N6">
-        <v>1.019484647836689</v>
+        <v>1.020635309557269</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027931396038797</v>
+        <v>1.045645406050174</v>
       </c>
       <c r="D7">
-        <v>1.04253313066937</v>
+        <v>1.051074407641785</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.048194097554622</v>
+        <v>1.060469552605229</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054601463733057</v>
+        <v>1.044219135963042</v>
       </c>
       <c r="J7">
-        <v>1.046640790175455</v>
+        <v>1.050129268101094</v>
       </c>
       <c r="K7">
-        <v>1.052141113064897</v>
+        <v>1.05352015893196</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.057740861835701</v>
+        <v>1.062892498101031</v>
       </c>
       <c r="N7">
-        <v>1.019223324566641</v>
+        <v>1.020577267562841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022355247472804</v>
+        <v>1.044457657540466</v>
       </c>
       <c r="D8">
-        <v>1.038379343022767</v>
+        <v>1.050159447603053</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.043345419783731</v>
+        <v>1.059373010189719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05292125884155</v>
+        <v>1.04392340737562</v>
       </c>
       <c r="J8">
-        <v>1.043334264783359</v>
+        <v>1.049405234700012</v>
       </c>
       <c r="K8">
-        <v>1.049063374911501</v>
+        <v>1.052851975746088</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.053968595050421</v>
+        <v>1.062040773331432</v>
       </c>
       <c r="N8">
-        <v>1.018106463882753</v>
+        <v>1.020334389396667</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012087335489591</v>
+        <v>1.042367850972107</v>
       </c>
       <c r="D9">
-        <v>1.030758270506371</v>
+        <v>1.048550176064361</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.034461931877586</v>
+        <v>1.057446350858306</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049763901922409</v>
+        <v>1.043395194124198</v>
       </c>
       <c r="J9">
-        <v>1.037220362193569</v>
+        <v>1.048127564349108</v>
       </c>
       <c r="K9">
-        <v>1.043371276522586</v>
+        <v>1.051672349825975</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.047019580753351</v>
+        <v>1.060540519220062</v>
       </c>
       <c r="N9">
-        <v>1.016040252878512</v>
+        <v>1.019905408692423</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004914130268325</v>
+        <v>1.040976842141321</v>
       </c>
       <c r="D10">
-        <v>1.02545609296334</v>
+        <v>1.047479437833974</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.028289226838843</v>
+        <v>1.056165764752929</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047517396682048</v>
+        <v>1.043038313271726</v>
       </c>
       <c r="J10">
-        <v>1.032934124975019</v>
+        <v>1.047274616614653</v>
       </c>
       <c r="K10">
-        <v>1.039380453465944</v>
+        <v>1.050884516945527</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.04216582931371</v>
+        <v>1.059540827545199</v>
       </c>
       <c r="N10">
-        <v>1.014591170898413</v>
+        <v>1.019618774865737</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001722862465838</v>
+        <v>1.040375055641217</v>
       </c>
       <c r="D11">
-        <v>1.023103174098752</v>
+        <v>1.047016315381879</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.025551683864927</v>
+        <v>1.055612190946599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046508783400035</v>
+        <v>1.042882663489282</v>
       </c>
       <c r="J11">
-        <v>1.031024143571664</v>
+        <v>1.046905017152179</v>
       </c>
       <c r="K11">
-        <v>1.037602165363463</v>
+        <v>1.050543054372008</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.040007301040464</v>
+        <v>1.05910807974964</v>
       </c>
       <c r="N11">
-        <v>1.013945366301227</v>
+        <v>1.019494510989721</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000524000231541</v>
+        <v>1.040151606054811</v>
       </c>
       <c r="D12">
-        <v>1.022220215260464</v>
+        <v>1.046844369840537</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.024524630171686</v>
+        <v>1.055406710083292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046128543981581</v>
+        <v>1.042824680841677</v>
       </c>
       <c r="J12">
-        <v>1.03030619997118</v>
+        <v>1.046767692312591</v>
       </c>
       <c r="K12">
-        <v>1.036933743266906</v>
+        <v>1.050416172097807</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.039196591539855</v>
+        <v>1.058947358079062</v>
       </c>
       <c r="N12">
-        <v>1.013702606088274</v>
+        <v>1.019448331791124</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000781781811902</v>
+        <v>1.040199533078416</v>
       </c>
       <c r="D13">
-        <v>1.022410026168876</v>
+        <v>1.046881249154888</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.024745406748482</v>
+        <v>1.055450780015237</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046210363323256</v>
+        <v>1.042837125881722</v>
       </c>
       <c r="J13">
-        <v>1.030460591889182</v>
+        <v>1.046797150711416</v>
       </c>
       <c r="K13">
-        <v>1.037077484659997</v>
+        <v>1.050443390925443</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.039370902545131</v>
+        <v>1.058981832491167</v>
       </c>
       <c r="N13">
-        <v>1.013754811366476</v>
+        <v>1.019458238377856</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001624043284981</v>
+        <v>1.040356583575412</v>
       </c>
       <c r="D14">
-        <v>1.02303037409964</v>
+        <v>1.047002100694514</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.02546699844519</v>
+        <v>1.055595202946704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046477468087583</v>
+        <v>1.042877874036838</v>
       </c>
       <c r="J14">
-        <v>1.030964973618649</v>
+        <v>1.046893666630577</v>
       </c>
       <c r="K14">
-        <v>1.037547076311684</v>
+        <v>1.050532567214013</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.039940472230518</v>
+        <v>1.059094794028046</v>
       </c>
       <c r="N14">
-        <v>1.013925359154988</v>
+        <v>1.019490694250484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002141180615324</v>
+        <v>1.040453358300207</v>
       </c>
       <c r="D15">
-        <v>1.02341138828386</v>
+        <v>1.047076571797567</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.025910227181118</v>
+        <v>1.055684205426132</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046641292242429</v>
+        <v>1.042902958156949</v>
       </c>
       <c r="J15">
-        <v>1.031274602962109</v>
+        <v>1.046953128118153</v>
       </c>
       <c r="K15">
-        <v>1.037835351635383</v>
+        <v>1.050587505357196</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.040290206433776</v>
+        <v>1.059164396065405</v>
       </c>
       <c r="N15">
-        <v>1.014030053854384</v>
+        <v>1.019510688473422</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005124071682505</v>
+        <v>1.041016791984542</v>
       </c>
       <c r="D16">
-        <v>1.025611012222876</v>
+        <v>1.047510184708528</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.028469504271528</v>
+        <v>1.05620252332168</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04758356203557</v>
+        <v>1.043048619729395</v>
       </c>
       <c r="J16">
-        <v>1.033059714573294</v>
+        <v>1.047299140167363</v>
       </c>
       <c r="K16">
-        <v>1.039497385714566</v>
+        <v>1.050907171920151</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.042307853063801</v>
+        <v>1.059569550342355</v>
       </c>
       <c r="N16">
-        <v>1.014633633976914</v>
+        <v>1.01962701873385</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006971878240194</v>
+        <v>1.041370361631299</v>
       </c>
       <c r="D17">
-        <v>1.026975225155219</v>
+        <v>1.047782317371452</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.030057210823459</v>
+        <v>1.056527900147212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048164879346215</v>
+        <v>1.043139690470087</v>
       </c>
       <c r="J17">
-        <v>1.034164748949562</v>
+        <v>1.047516113510719</v>
       </c>
       <c r="K17">
-        <v>1.040526253533221</v>
+        <v>1.051107603853916</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.043557982801532</v>
+        <v>1.059823727382396</v>
       </c>
       <c r="N17">
-        <v>1.015007248089423</v>
+        <v>1.0196999498827</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008041498028632</v>
+        <v>1.041576643835508</v>
       </c>
       <c r="D18">
-        <v>1.0277654728959</v>
+        <v>1.047941097268782</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.030977082877584</v>
+        <v>1.056717776416447</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048500506495786</v>
+        <v>1.04319270258068</v>
       </c>
       <c r="J18">
-        <v>1.034804112103567</v>
+        <v>1.047642644514663</v>
       </c>
       <c r="K18">
-        <v>1.041121551795762</v>
+        <v>1.051224480909281</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.044281708116502</v>
+        <v>1.059971996551328</v>
       </c>
       <c r="N18">
-        <v>1.015223409876552</v>
+        <v>1.01974247493263</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008404844095128</v>
+        <v>1.041646989353407</v>
       </c>
       <c r="D19">
-        <v>1.028034010404257</v>
+        <v>1.047995245464338</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.031289696320796</v>
+        <v>1.056782534444392</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048614368367691</v>
+        <v>1.043210760019085</v>
       </c>
       <c r="J19">
-        <v>1.035021250040681</v>
+        <v>1.047685783896432</v>
       </c>
       <c r="K19">
-        <v>1.041323725016843</v>
+        <v>1.051264327589275</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.04452756632247</v>
+        <v>1.060022554502353</v>
       </c>
       <c r="N19">
-        <v>1.015296820392699</v>
+        <v>1.019756972411543</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006774476379392</v>
+        <v>1.04133242166961</v>
       </c>
       <c r="D20">
-        <v>1.026829427162503</v>
+        <v>1.047753114979357</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.029887510704522</v>
+        <v>1.056492981027039</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048102867332807</v>
+        <v>1.043129930599104</v>
       </c>
       <c r="J20">
-        <v>1.034046728141474</v>
+        <v>1.047492836993376</v>
       </c>
       <c r="K20">
-        <v>1.04041636699495</v>
+        <v>1.051086102654825</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.043424422669982</v>
+        <v>1.059796455340676</v>
       </c>
       <c r="N20">
-        <v>1.014967345849374</v>
+        <v>1.019692126552899</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001376396165751</v>
+        <v>1.040310333880961</v>
       </c>
       <c r="D21">
-        <v>1.022847948414422</v>
+        <v>1.046966510742134</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.025254793524382</v>
+        <v>1.055552670085154</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046398968593</v>
+        <v>1.042865879336828</v>
       </c>
       <c r="J21">
-        <v>1.030816683326736</v>
+        <v>1.046865246170148</v>
       </c>
       <c r="K21">
-        <v>1.037409013823666</v>
+        <v>1.050506308332579</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.039772998166529</v>
+        <v>1.059061529104796</v>
       </c>
       <c r="N21">
-        <v>1.013875217609915</v>
+        <v>1.019481137410716</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9979040282860672</v>
+        <v>1.039668174288234</v>
       </c>
       <c r="D22">
-        <v>1.020292456543351</v>
+        <v>1.046472397846075</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.022282695052075</v>
+        <v>1.054962276411633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045295172779075</v>
+        <v>1.042698891661552</v>
       </c>
       <c r="J22">
-        <v>1.028736491994299</v>
+        <v>1.04647042895853</v>
       </c>
       <c r="K22">
-        <v>1.03547235690349</v>
+        <v>1.050141492193696</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.037425284986232</v>
+        <v>1.058599568916213</v>
       </c>
       <c r="N22">
-        <v>1.013171825168062</v>
+        <v>1.019348352717805</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9997524648216628</v>
+        <v>1.040008550529201</v>
       </c>
       <c r="D23">
-        <v>1.021652260956669</v>
+        <v>1.046734292680082</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.023864054099104</v>
+        <v>1.055275177275757</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045883468203943</v>
+        <v>1.042787506564</v>
       </c>
       <c r="J23">
-        <v>1.029844049434065</v>
+        <v>1.046679750102374</v>
       </c>
       <c r="K23">
-        <v>1.036503477282378</v>
+        <v>1.050334913977785</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.038674913471911</v>
+        <v>1.05884445121686</v>
       </c>
       <c r="N23">
-        <v>1.013546335970192</v>
+        <v>1.019418756341294</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006863698995518</v>
+        <v>1.041349564947676</v>
       </c>
       <c r="D24">
-        <v>1.026895323888214</v>
+        <v>1.047766310130509</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.029964210040466</v>
+        <v>1.0565087591981</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048130898524612</v>
+        <v>1.043134340998179</v>
       </c>
       <c r="J24">
-        <v>1.034100072659492</v>
+        <v>1.047503354729697</v>
       </c>
       <c r="K24">
-        <v>1.04046603487133</v>
+        <v>1.051095818218631</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.043484789570736</v>
+        <v>1.059808778365477</v>
       </c>
       <c r="N24">
-        <v>1.014985381387149</v>
+        <v>1.019695661623593</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014797266985541</v>
+        <v>1.042907734385645</v>
       </c>
       <c r="D25">
-        <v>1.032766095795395</v>
+        <v>1.048965846043363</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.03680095631452</v>
+        <v>1.057943766312583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05060438762917</v>
+        <v>1.04353258778639</v>
       </c>
       <c r="J25">
-        <v>1.038836703622405</v>
+        <v>1.048458083197417</v>
       </c>
       <c r="K25">
-        <v>1.044876195792207</v>
+        <v>1.051977565653718</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.048853635524133</v>
+        <v>1.060928292415779</v>
       </c>
       <c r="N25">
-        <v>1.01658660691331</v>
+        <v>1.020016426266702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044152094170697</v>
+        <v>1.020890785517446</v>
       </c>
       <c r="D2">
-        <v>1.049924100118101</v>
+        <v>1.037290171765672</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.059091091077023</v>
+        <v>1.04207490022675</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043846791376833</v>
+        <v>1.052475686894112</v>
       </c>
       <c r="J2">
-        <v>1.049218712252233</v>
+        <v>1.042464118553623</v>
       </c>
       <c r="K2">
-        <v>1.052679806216123</v>
+        <v>1.048253335941622</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.061821541926077</v>
+        <v>1.052977607866308</v>
       </c>
       <c r="N2">
-        <v>1.020271793948582</v>
+        <v>1.017812470926223</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045056499513778</v>
+        <v>1.025189593249692</v>
       </c>
       <c r="D3">
-        <v>1.050620725571588</v>
+        <v>1.040489403616303</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.059925727354995</v>
+        <v>1.045807798944335</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044072927145614</v>
+        <v>1.053778657856872</v>
       </c>
       <c r="J3">
-        <v>1.049770479454477</v>
+        <v>1.045016349257158</v>
       </c>
       <c r="K3">
-        <v>1.053189073776213</v>
+        <v>1.050629156118786</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.06247028769972</v>
+        <v>1.055886281519208</v>
       </c>
       <c r="N3">
-        <v>1.020456931824559</v>
+        <v>1.018674693714206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045642115502671</v>
+        <v>1.02791620024667</v>
       </c>
       <c r="D4">
-        <v>1.051071872512366</v>
+        <v>1.042521796903779</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.060466513178598</v>
+        <v>1.048180860220373</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044218321331843</v>
+        <v>1.054596922228372</v>
       </c>
       <c r="J4">
-        <v>1.050127264457776</v>
+        <v>1.046631794919917</v>
       </c>
       <c r="K4">
-        <v>1.053518310150175</v>
+        <v>1.052132741199067</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.06289013947644</v>
+        <v>1.05773058489304</v>
       </c>
       <c r="N4">
-        <v>1.020576595665698</v>
+        <v>1.01922028692606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045888404255405</v>
+        <v>1.029049733519325</v>
       </c>
       <c r="D5">
-        <v>1.051261625040017</v>
+        <v>1.043367451385049</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.06069403037028</v>
+        <v>1.049168667350681</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044279221608695</v>
+        <v>1.054935106222965</v>
       </c>
       <c r="J5">
-        <v>1.050277197079108</v>
+        <v>1.047302548599401</v>
       </c>
       <c r="K5">
-        <v>1.053656649693768</v>
+        <v>1.052756993052296</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.063066660567513</v>
+        <v>1.058497139195331</v>
       </c>
       <c r="N5">
-        <v>1.020626870150089</v>
+        <v>1.01944678403933</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045929762802323</v>
+        <v>1.029239324437585</v>
       </c>
       <c r="D6">
-        <v>1.051293490579048</v>
+        <v>1.043508934141062</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.060732241478439</v>
+        <v>1.049333957146309</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044289433912913</v>
+        <v>1.054991551613444</v>
       </c>
       <c r="J6">
-        <v>1.050302367888373</v>
+        <v>1.047414686564291</v>
       </c>
       <c r="K6">
-        <v>1.053679873291501</v>
+        <v>1.052861353240787</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.063096300100218</v>
+        <v>1.05862533885507</v>
       </c>
       <c r="N6">
-        <v>1.020635309557269</v>
+        <v>1.019484647836689</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045645406050174</v>
+        <v>1.027931396038798</v>
       </c>
       <c r="D7">
-        <v>1.051074407641785</v>
+        <v>1.04253313066937</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.060469552605229</v>
+        <v>1.048194097554622</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044219135963042</v>
+        <v>1.054601463733057</v>
       </c>
       <c r="J7">
-        <v>1.050129268101094</v>
+        <v>1.046640790175456</v>
       </c>
       <c r="K7">
-        <v>1.05352015893196</v>
+        <v>1.052141113064897</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.062892498101031</v>
+        <v>1.057740861835702</v>
       </c>
       <c r="N7">
-        <v>1.020577267562841</v>
+        <v>1.019223324566641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044457657540466</v>
+        <v>1.022355247472802</v>
       </c>
       <c r="D8">
-        <v>1.050159447603053</v>
+        <v>1.038379343022766</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.059373010189719</v>
+        <v>1.04334541978373</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04392340737562</v>
+        <v>1.052921258841549</v>
       </c>
       <c r="J8">
-        <v>1.049405234700012</v>
+        <v>1.043334264783358</v>
       </c>
       <c r="K8">
-        <v>1.052851975746088</v>
+        <v>1.0490633749115</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.062040773331432</v>
+        <v>1.05396859505042</v>
       </c>
       <c r="N8">
-        <v>1.020334389396667</v>
+        <v>1.018106463882753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042367850972107</v>
+        <v>1.01208733548959</v>
       </c>
       <c r="D9">
-        <v>1.048550176064361</v>
+        <v>1.03075827050637</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.057446350858306</v>
+        <v>1.034461931877585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043395194124198</v>
+        <v>1.049763901922409</v>
       </c>
       <c r="J9">
-        <v>1.048127564349108</v>
+        <v>1.037220362193568</v>
       </c>
       <c r="K9">
-        <v>1.051672349825975</v>
+        <v>1.043371276522585</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.060540519220062</v>
+        <v>1.04701958075335</v>
       </c>
       <c r="N9">
-        <v>1.019905408692423</v>
+        <v>1.016040252878512</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040976842141321</v>
+        <v>1.004914130268323</v>
       </c>
       <c r="D10">
-        <v>1.047479437833974</v>
+        <v>1.025456092963339</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.056165764752929</v>
+        <v>1.028289226838842</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043038313271726</v>
+        <v>1.047517396682047</v>
       </c>
       <c r="J10">
-        <v>1.047274616614653</v>
+        <v>1.032934124975018</v>
       </c>
       <c r="K10">
-        <v>1.050884516945527</v>
+        <v>1.039380453465943</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.059540827545199</v>
+        <v>1.042165829313708</v>
       </c>
       <c r="N10">
-        <v>1.019618774865737</v>
+        <v>1.014591170898413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040375055641217</v>
+        <v>1.001722862465837</v>
       </c>
       <c r="D11">
-        <v>1.047016315381879</v>
+        <v>1.023103174098752</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.055612190946599</v>
+        <v>1.025551683864927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042882663489282</v>
+        <v>1.046508783400035</v>
       </c>
       <c r="J11">
-        <v>1.046905017152179</v>
+        <v>1.031024143571664</v>
       </c>
       <c r="K11">
-        <v>1.050543054372008</v>
+        <v>1.037602165363463</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.05910807974964</v>
+        <v>1.040007301040463</v>
       </c>
       <c r="N11">
-        <v>1.019494510989721</v>
+        <v>1.013945366301227</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040151606054811</v>
+        <v>1.000524000231542</v>
       </c>
       <c r="D12">
-        <v>1.046844369840537</v>
+        <v>1.022220215260464</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.055406710083292</v>
+        <v>1.024524630171687</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042824680841677</v>
+        <v>1.046128543981582</v>
       </c>
       <c r="J12">
-        <v>1.046767692312591</v>
+        <v>1.03030619997118</v>
       </c>
       <c r="K12">
-        <v>1.050416172097807</v>
+        <v>1.036933743266907</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.058947358079062</v>
+        <v>1.039196591539856</v>
       </c>
       <c r="N12">
-        <v>1.019448331791124</v>
+        <v>1.013702606088275</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040199533078416</v>
+        <v>1.000781781811903</v>
       </c>
       <c r="D13">
-        <v>1.046881249154888</v>
+        <v>1.022410026168878</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.055450780015237</v>
+        <v>1.024745406748483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042837125881722</v>
+        <v>1.046210363323256</v>
       </c>
       <c r="J13">
-        <v>1.046797150711416</v>
+        <v>1.030460591889183</v>
       </c>
       <c r="K13">
-        <v>1.050443390925443</v>
+        <v>1.037077484659998</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.058981832491167</v>
+        <v>1.039370902545132</v>
       </c>
       <c r="N13">
-        <v>1.019458238377856</v>
+        <v>1.013754811366476</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040356583575412</v>
+        <v>1.001624043284981</v>
       </c>
       <c r="D14">
-        <v>1.047002100694514</v>
+        <v>1.02303037409964</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.055595202946704</v>
+        <v>1.02546699844519</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042877874036838</v>
+        <v>1.046477468087583</v>
       </c>
       <c r="J14">
-        <v>1.046893666630577</v>
+        <v>1.030964973618649</v>
       </c>
       <c r="K14">
-        <v>1.050532567214013</v>
+        <v>1.037547076311684</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.059094794028046</v>
+        <v>1.039940472230518</v>
       </c>
       <c r="N14">
-        <v>1.019490694250484</v>
+        <v>1.013925359154988</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040453358300207</v>
+        <v>1.002141180615323</v>
       </c>
       <c r="D15">
-        <v>1.047076571797567</v>
+        <v>1.023411388283859</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.055684205426132</v>
+        <v>1.025910227181117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042902958156949</v>
+        <v>1.046641292242429</v>
       </c>
       <c r="J15">
-        <v>1.046953128118153</v>
+        <v>1.031274602962109</v>
       </c>
       <c r="K15">
-        <v>1.050587505357196</v>
+        <v>1.037835351635383</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.059164396065405</v>
+        <v>1.040290206433775</v>
       </c>
       <c r="N15">
-        <v>1.019510688473422</v>
+        <v>1.014030053854384</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041016791984542</v>
+        <v>1.005124071682505</v>
       </c>
       <c r="D16">
-        <v>1.047510184708528</v>
+        <v>1.025611012222876</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.05620252332168</v>
+        <v>1.028469504271528</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043048619729395</v>
+        <v>1.04758356203557</v>
       </c>
       <c r="J16">
-        <v>1.047299140167363</v>
+        <v>1.033059714573294</v>
       </c>
       <c r="K16">
-        <v>1.050907171920151</v>
+        <v>1.039497385714566</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.059569550342355</v>
+        <v>1.042307853063802</v>
       </c>
       <c r="N16">
-        <v>1.01962701873385</v>
+        <v>1.014633633976914</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041370361631299</v>
+        <v>1.006971878240193</v>
       </c>
       <c r="D17">
-        <v>1.047782317371452</v>
+        <v>1.026975225155218</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.056527900147212</v>
+        <v>1.030057210823459</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043139690470087</v>
+        <v>1.048164879346215</v>
       </c>
       <c r="J17">
-        <v>1.047516113510719</v>
+        <v>1.034164748949562</v>
       </c>
       <c r="K17">
-        <v>1.051107603853916</v>
+        <v>1.040526253533221</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.059823727382396</v>
+        <v>1.043557982801532</v>
       </c>
       <c r="N17">
-        <v>1.0196999498827</v>
+        <v>1.015007248089423</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041576643835508</v>
+        <v>1.008041498028632</v>
       </c>
       <c r="D18">
-        <v>1.047941097268782</v>
+        <v>1.0277654728959</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.056717776416447</v>
+        <v>1.030977082877584</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04319270258068</v>
+        <v>1.048500506495786</v>
       </c>
       <c r="J18">
-        <v>1.047642644514663</v>
+        <v>1.034804112103567</v>
       </c>
       <c r="K18">
-        <v>1.051224480909281</v>
+        <v>1.041121551795762</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.059971996551328</v>
+        <v>1.044281708116502</v>
       </c>
       <c r="N18">
-        <v>1.01974247493263</v>
+        <v>1.015223409876552</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041646989353407</v>
+        <v>1.00840484409513</v>
       </c>
       <c r="D19">
-        <v>1.047995245464338</v>
+        <v>1.028034010404259</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.056782534444392</v>
+        <v>1.031289696320798</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043210760019085</v>
+        <v>1.048614368367692</v>
       </c>
       <c r="J19">
-        <v>1.047685783896432</v>
+        <v>1.035021250040683</v>
       </c>
       <c r="K19">
-        <v>1.051264327589275</v>
+        <v>1.041323725016845</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.060022554502353</v>
+        <v>1.044527566322472</v>
       </c>
       <c r="N19">
-        <v>1.019756972411543</v>
+        <v>1.015296820392699</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04133242166961</v>
+        <v>1.006774476379392</v>
       </c>
       <c r="D20">
-        <v>1.047753114979357</v>
+        <v>1.026829427162503</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.056492981027039</v>
+        <v>1.029887510704522</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043129930599104</v>
+        <v>1.048102867332807</v>
       </c>
       <c r="J20">
-        <v>1.047492836993376</v>
+        <v>1.034046728141474</v>
       </c>
       <c r="K20">
-        <v>1.051086102654825</v>
+        <v>1.04041636699495</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.059796455340676</v>
+        <v>1.043424422669981</v>
       </c>
       <c r="N20">
-        <v>1.019692126552899</v>
+        <v>1.014967345849374</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040310333880961</v>
+        <v>1.001376396165751</v>
       </c>
       <c r="D21">
-        <v>1.046966510742134</v>
+        <v>1.022847948414423</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.055552670085154</v>
+        <v>1.025254793524382</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042865879336828</v>
+        <v>1.046398968593001</v>
       </c>
       <c r="J21">
-        <v>1.046865246170148</v>
+        <v>1.030816683326737</v>
       </c>
       <c r="K21">
-        <v>1.050506308332579</v>
+        <v>1.037409013823667</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.059061529104796</v>
+        <v>1.03977299816653</v>
       </c>
       <c r="N21">
-        <v>1.019481137410716</v>
+        <v>1.013875217609916</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039668174288234</v>
+        <v>0.9979040282860681</v>
       </c>
       <c r="D22">
-        <v>1.046472397846075</v>
+        <v>1.020292456543352</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.054962276411633</v>
+        <v>1.022282695052076</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042698891661552</v>
+        <v>1.045295172779075</v>
       </c>
       <c r="J22">
-        <v>1.04647042895853</v>
+        <v>1.0287364919943</v>
       </c>
       <c r="K22">
-        <v>1.050141492193696</v>
+        <v>1.035472356903491</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.058599568916213</v>
+        <v>1.037425284986233</v>
       </c>
       <c r="N22">
-        <v>1.019348352717805</v>
+        <v>1.013171825168063</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040008550529201</v>
+        <v>0.9997524648216628</v>
       </c>
       <c r="D23">
-        <v>1.046734292680082</v>
+        <v>1.021652260956669</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.055275177275757</v>
+        <v>1.023864054099104</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042787506564</v>
+        <v>1.045883468203943</v>
       </c>
       <c r="J23">
-        <v>1.046679750102374</v>
+        <v>1.029844049434064</v>
       </c>
       <c r="K23">
-        <v>1.050334913977785</v>
+        <v>1.036503477282377</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.05884445121686</v>
+        <v>1.03867491347191</v>
       </c>
       <c r="N23">
-        <v>1.019418756341294</v>
+        <v>1.013546335970192</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041349564947676</v>
+        <v>1.006863698995518</v>
       </c>
       <c r="D24">
-        <v>1.047766310130509</v>
+        <v>1.026895323888214</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.0565087591981</v>
+        <v>1.029964210040466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043134340998179</v>
+        <v>1.048130898524612</v>
       </c>
       <c r="J24">
-        <v>1.047503354729697</v>
+        <v>1.034100072659492</v>
       </c>
       <c r="K24">
-        <v>1.051095818218631</v>
+        <v>1.04046603487133</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.059808778365477</v>
+        <v>1.043484789570736</v>
       </c>
       <c r="N24">
-        <v>1.019695661623593</v>
+        <v>1.014985381387149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042907734385645</v>
+        <v>1.014797266985541</v>
       </c>
       <c r="D25">
-        <v>1.048965846043363</v>
+        <v>1.032766095795394</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.057943766312583</v>
+        <v>1.03680095631452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04353258778639</v>
+        <v>1.05060438762917</v>
       </c>
       <c r="J25">
-        <v>1.048458083197417</v>
+        <v>1.038836703622404</v>
       </c>
       <c r="K25">
-        <v>1.051977565653718</v>
+        <v>1.044876195792206</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.060928292415779</v>
+        <v>1.048853635524132</v>
       </c>
       <c r="N25">
-        <v>1.020016426266702</v>
+        <v>1.01658660691331</v>
       </c>
     </row>
   </sheetData>
